--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.296637484904569</v>
+        <v>7.273612799567631</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7.737997443184589</v>
+        <v>-7.71094665953368</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-3.12146043388665</v>
+        <v>-2.953243576515993</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.589396046318626</v>
+        <v>2.092325086009379</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.092144970525496</v>
+        <v>-0.8957659543836369</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8560855675748881</v>
+        <v>0.808111282324586</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.6183139075789075</v>
+        <v>-0.5400899636021528</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.426915854491969</v>
+        <v>0.9306312308838732</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1187480707589461</v>
+        <v>-0.0521044692539093</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.484046906261998</v>
+        <v>-1.185636841993183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8639502458727975</v>
+        <v>0.7007593354088806</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.2600187531254733</v>
+        <v>0.876933787738463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.4725700283902407</v>
+        <v>0.3962997177008458</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.2530132116564913</v>
+        <v>-0.062173517</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.3497791006487767</v>
+        <v>0.2546725873431263</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.01668854517483986</v>
+        <v>0.3607736698111976</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.123869923600231</v>
+        <v>0.08648729331993882</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.68503989883405</v>
+        <v>-0.5990062151031799</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.066693834912281</v>
+        <v>0.6838772855378736</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -613,12 +613,15 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.3097100027750048</v>
+        <v>-0.2042791748566441</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.5947585845621888</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Qminus1</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>2025-04-01_diff</t>
+  </si>
+  <si>
+    <t>2025-07-01_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01_diff</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.808111282324586</v>
+        <v>0.4432709353245859</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -509,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.5400899636021528</v>
+        <v>-1.853424299602153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7007593354088806</v>
+        <v>0.5217354724088806</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -565,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.062173517</v>
+        <v>0.308458428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -581,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.3607736698111976</v>
+        <v>-0.1004302561888024</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -589,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.08648729331993882</v>
+        <v>1.226733570319939</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -597,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.5990062151031799</v>
+        <v>0.3320304208968201</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -605,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.6838772855378736</v>
+        <v>0.6150051765378737</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -613,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.2042791748566441</v>
+        <v>-0.2683559768566441</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -621,7 +627,17 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.5947585845621888</v>
+        <v>0.2315426864241067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep/ifoCAst_errors_last_rep_latest.xlsx
@@ -627,12 +627,15 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.2315426864241067</v>
+        <v>0.1647551661493167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.331651578</v>
       </c>
     </row>
     <row r="25" spans="1:2">
